--- a/doc/KeplerX-bus-access-cycle.xlsx
+++ b/doc/KeplerX-bus-access-cycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175FE86-87D0-CA42-A984-4269628AA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9EBD50-9C3F-2E41-8E91-D7A9C0C9B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="500" windowWidth="40040" windowHeight="32980" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="40040" windowHeight="32980" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenPak BusMode" sheetId="6" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982ABF01-FA04-AD4F-B4AD-872E901F4357}">
   <dimension ref="B2:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/doc/KeplerX-bus-access-cycle.xlsx
+++ b/doc/KeplerX-bus-access-cycle.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9EBD50-9C3F-2E41-8E91-D7A9C0C9B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66D604-244A-F249-AD96-B5D08FF500D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="40040" windowHeight="32980" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="13200" yWindow="500" windowWidth="40040" windowHeight="32980" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="GreenPak BusMode" sheetId="6" r:id="rId1"/>
+    <sheet name="GreenPak BusMode New" sheetId="7" r:id="rId1"/>
+    <sheet name="GreenPak BusMode" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>MODE</t>
     <phoneticPr fontId="1"/>
@@ -524,6 +525,40 @@
   </si>
   <si>
     <t>16374(DO)がデータをラッチし、X68kバスに出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機 - AB取り込み(U) CK=1</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">トリコミタイキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機 - AB取り込み(U) CK=0</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">トリコミタイキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBにAUを出力状態にして待機。アドレスラッチCK=0</t>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">シュツリョクジョウタイニシテ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">タイキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBにAUを出力状態にして待機。アドレスラッチCK=1</t>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">シュツリョクジョウタイニシテ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">タイキ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +673,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,11 +990,3531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05004F82-66C8-9E4F-B444-38C10502323D}">
+  <dimension ref="B2:V78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>DEC2BIN(C5,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" ref="D6:D20" si="0">DEC2BIN(C6,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>7</v>
+      </c>
+      <c r="K23" s="4">
+        <v>8</v>
+      </c>
+      <c r="L23" s="4">
+        <v>9</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23" s="4">
+        <v>12</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4">
+        <v>14</v>
+      </c>
+      <c r="R23" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22">
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f>DEC2BIN(C26,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:H36" si="1">VLOOKUP($D26,$D$5:$R$20,F$23)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:L36" si="2">VLOOKUP($D26,$D$5:$R$20,J$23)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:O36" si="3">VLOOKUP($D26,$D$5:$R$20,N$23)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:R36" si="4">VLOOKUP($D26,$D$5:$R$20,Q$23)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f>DEC2BIN(C27,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" ref="D28:D36" si="5">DEC2BIN(C28,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0101</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0101</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0101</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0101</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>0100</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="3:22">
+      <c r="C38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f>DEC2BIN(C40,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" ref="F40:H47" si="6">VLOOKUP($D40,$D$5:$R$20,F$23)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:L47" si="7">VLOOKUP($D40,$D$5:$R$20,J$23)</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:O47" si="8">VLOOKUP($D40,$D$5:$R$20,N$23)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40:R47" si="9">VLOOKUP($D40,$D$5:$R$20,Q$23)</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" ref="D41:D47" si="10">DEC2BIN(C41,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0011</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0011</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0011</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>0010</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="3:22">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="3:22">
+      <c r="C50" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22">
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22">
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f>DEC2BIN(C52,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" ref="F52:H63" si="11">VLOOKUP($D52,$D$5:$R$20,F$23)</f>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:L63" si="12">VLOOKUP($D52,$D$5:$R$20,J$23)</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:O63" si="13">VLOOKUP($D52,$D$5:$R$20,N$23)</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52:R63" si="14">VLOOKUP($D52,$D$5:$R$20,Q$23)</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22">
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f t="shared" ref="D53:D63" si="15">DEC2BIN(C53,4)</f>
+        <v>1001</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22">
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1001</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22">
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1011</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22">
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1011</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22">
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1111</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22">
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1110</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T58" s="8">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22">
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1110</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T59" s="8">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22">
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22">
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T61" s="8">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22">
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T62" s="8">
+        <v>0</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22">
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22">
+      <c r="C65" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22">
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22">
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f>DEC2BIN(C67,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:H78" si="16">VLOOKUP($D67,$D$5:$R$20,F$23)</f>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:L78" si="17">VLOOKUP($D67,$D$5:$R$20,J$23)</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:O78" si="18">VLOOKUP($D67,$D$5:$R$20,N$23)</f>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:R78" si="19">VLOOKUP($D67,$D$5:$R$20,Q$23)</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22">
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f>DEC2BIN(C68,4)</f>
+        <v>1001</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22">
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f t="shared" ref="D69:D77" si="20">DEC2BIN(C69,4)</f>
+        <v>1001</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22">
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1011</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22">
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1011</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22">
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1111</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" s="8">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22">
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1101</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="8">
+        <v>0</v>
+      </c>
+      <c r="U73" s="8">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22">
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1101</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="8">
+        <v>0</v>
+      </c>
+      <c r="U74" s="8">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22">
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1101</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="8">
+        <v>0</v>
+      </c>
+      <c r="U75" s="8">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="3:22">
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1101</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="8">
+        <v>0</v>
+      </c>
+      <c r="U76" s="8">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22">
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1001</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22">
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f>DEC2BIN(C78,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982ABF01-FA04-AD4F-B4AD-872E901F4357}">
   <dimension ref="B2:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="B2" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/doc/KeplerX-bus-access-cycle.xlsx
+++ b/doc/KeplerX-bus-access-cycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66D604-244A-F249-AD96-B5D08FF500D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E3E7D-97B7-CD46-BF8B-BD35B4F1DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="500" windowWidth="40040" windowHeight="32980" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="20680" yWindow="1880" windowWidth="40040" windowHeight="28740" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenPak BusMode New" sheetId="7" r:id="rId1"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05004F82-66C8-9E4F-B444-38C10502323D}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/doc/KeplerX-bus-access-cycle.xlsx
+++ b/doc/KeplerX-bus-access-cycle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E3E7D-97B7-CD46-BF8B-BD35B4F1DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E37B56-004A-4B42-99BF-B399F43034A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="1880" windowWidth="40040" windowHeight="28740" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="17820" yWindow="1920" windowWidth="40040" windowHeight="28740" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenPak BusMode New" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>MODE</t>
     <phoneticPr fontId="1"/>
@@ -991,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05004F82-66C8-9E4F-B444-38C10502323D}">
-  <dimension ref="B2:V78"/>
+  <dimension ref="B2:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1606,20 +1606,42 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:22">
       <c r="C18">
@@ -1630,7 +1652,7 @@
         <v>1101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1660,10 +1682,10 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:22">
@@ -3788,7 +3810,7 @@
         <v>34</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" ref="F67:H78" si="16">VLOOKUP($D67,$D$5:$R$20,F$23)</f>
+        <f t="shared" ref="F67:H79" si="16">VLOOKUP($D67,$D$5:$R$20,F$23)</f>
         <v>1</v>
       </c>
       <c r="G67">
@@ -3800,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:L78" si="17">VLOOKUP($D67,$D$5:$R$20,J$23)</f>
+        <f t="shared" ref="J67:L79" si="17">VLOOKUP($D67,$D$5:$R$20,J$23)</f>
         <v>0</v>
       </c>
       <c r="K67">
@@ -3812,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:O78" si="18">VLOOKUP($D67,$D$5:$R$20,N$23)</f>
+        <f t="shared" ref="N67:O79" si="18">VLOOKUP($D67,$D$5:$R$20,N$23)</f>
         <v>0</v>
       </c>
       <c r="O67">
@@ -3820,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:R78" si="19">VLOOKUP($D67,$D$5:$R$20,Q$23)</f>
+        <f t="shared" ref="Q67:R79" si="19">VLOOKUP($D67,$D$5:$R$20,Q$23)</f>
         <v>0</v>
       </c>
       <c r="R67">
@@ -3900,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" ref="D69:D77" si="20">DEC2BIN(C69,4)</f>
+        <f t="shared" ref="D69:D78" si="20">DEC2BIN(C69,4)</f>
         <v>1001</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -4147,9 +4169,7 @@
         <f t="shared" si="20"/>
         <v>1101</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4182,34 +4202,31 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="Q73">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
       </c>
       <c r="U73" s="8">
         <v>0</v>
-      </c>
-      <c r="V73" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="74" spans="3:22">
       <c r="C74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="16"/>
@@ -4243,7 +4260,7 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -4258,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="3:22">
       <c r="C75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>47</v>
@@ -4319,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="3:22">
       <c r="C76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="16"/>
@@ -4380,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="3:22">
       <c r="C77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="16"/>
@@ -4414,9 +4431,9 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <f t="shared" si="18"/>
@@ -4428,40 +4445,40 @@
       </c>
       <c r="Q77">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>1</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T77" s="8">
+        <v>0</v>
+      </c>
+      <c r="U77" s="8">
+        <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="3:22">
       <c r="C78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>DEC2BIN(C78,4)</f>
-        <v>1000</v>
+        <f t="shared" si="20"/>
+        <v>1001</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <f t="shared" si="16"/>
@@ -4499,6 +4516,67 @@
         <v>1</v>
       </c>
       <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22">
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f>DEC2BIN(C79,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
         <v>1</v>
       </c>
     </row>

--- a/doc/KeplerX-bus-access-cycle.xlsx
+++ b/doc/KeplerX-bus-access-cycle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E37B56-004A-4B42-99BF-B399F43034A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1168D70-2396-1E47-B161-E87C851831DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="1920" windowWidth="40040" windowHeight="28740" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="31720" yWindow="1920" windowWidth="33680" windowHeight="23220" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenPak BusMode New" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>MODE</t>
     <phoneticPr fontId="1"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05004F82-66C8-9E4F-B444-38C10502323D}">
   <dimension ref="B2:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3215,7 +3215,7 @@
         <v>1011</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="11"/>
@@ -3269,11 +3269,11 @@
     </row>
     <row r="56" spans="3:22">
       <c r="C56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>30</v>
@@ -3292,11 +3292,11 @@
       </c>
       <c r="J56">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="12"/>
@@ -3337,7 +3337,7 @@
         <v>1111</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="11"/>
@@ -3581,7 +3581,7 @@
         <v>1010</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="11"/>
@@ -3987,7 +3987,7 @@
         <v>1011</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="16"/>
@@ -4041,11 +4041,11 @@
     </row>
     <row r="71" spans="3:22">
       <c r="C71">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>30</v>
@@ -4064,11 +4064,11 @@
       </c>
       <c r="J71">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="17"/>
@@ -4109,7 +4109,7 @@
         <v>1111</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="16"/>
@@ -4169,7 +4169,9 @@
         <f t="shared" si="20"/>
         <v>1101</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F73" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4463,22 +4465,22 @@
     </row>
     <row r="78" spans="3:22">
       <c r="C78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <f t="shared" si="16"/>
@@ -4524,18 +4526,18 @@
     </row>
     <row r="79" spans="3:22">
       <c r="C79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D79" s="3" t="str">
         <f>DEC2BIN(C79,4)</f>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <f t="shared" si="16"/>
@@ -4592,7 +4594,7 @@
   <dimension ref="B2:V76"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:R17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
